--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\实验室\INFOCOM\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{890A7291-A546-40E1-AB4B-05F80547C9BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40673088-1307-4E4B-B058-9B86511DB3AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{51787151-80DE-4BB7-B2E1-73E76D142E06}"/>
   </bookViews>
@@ -25,7 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>10w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.469384s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.237693s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.359607s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.482208s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.599162s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.962202s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.484869s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.986973s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,31 +452,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D1D85-10CA-4D70-AC4C-CA431EBB2B96}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>7.6299999999999996E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7.7279999999999996E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7.639E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>